--- a/test_data/p_same_first_choice.xlsx
+++ b/test_data/p_same_first_choice.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenniferestigene/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F27A2A20-0A9F-EF4C-8B9E-5810B178C226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655B01D7-F4F3-A941-8449-FBBAC5733D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14360" yWindow="500" windowWidth="14440" windowHeight="15300" xr2:uid="{B15B0C67-31C5-7345-86DF-5081700ECC51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Preferences" sheetId="2" r:id="rId1"/>
+    <sheet name="Project Preferences" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>s3</t>
   </si>
@@ -47,9 +47,6 @@
     <t>s1</t>
   </si>
   <si>
-    <t>p3</t>
-  </si>
-  <si>
     <t>s8</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>s5</t>
   </si>
   <si>
-    <t>p2</t>
-  </si>
-  <si>
     <t>s2</t>
   </si>
   <si>
@@ -71,16 +65,60 @@
     <t>s9</t>
   </si>
   <si>
-    <t>p1</t>
+    <t>max_student</t>
+  </si>
+  <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>1st_choice</t>
+  </si>
+  <si>
+    <t>2nd_choice</t>
+  </si>
+  <si>
+    <t>3rd_choice</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -95,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,15 +141,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{08B1B3DB-3116-C04E-9A6A-85B1CF06DBC9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,54 +485,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654DF547-C753-AB40-9E9C-D64348DBA51E}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941FE0FC-A070-0748-83CA-08F8D4DD0B85}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>0</v>
       </c>
     </row>
